--- a/PowerSupplyGOST.xlsx
+++ b/PowerSupplyGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F4136F-C373-4343-984F-6E2865DCF0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7A59C-60AF-4AA4-ABBA-CADF38766FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>МАА400-1С27-СКНР БКЮС.436610.007ТУ</t>
   </si>
@@ -169,10 +169,19 @@
     <t>МДМ160-1E</t>
   </si>
   <si>
-    <t>БСАР.430420.014ТУ</t>
-  </si>
-  <si>
     <t>МДМ12-1П</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>ООО "Александр Электрик источники электропитания"</t>
+  </si>
+  <si>
+    <t>ООО "АЕДОН"</t>
   </si>
 </sst>
 </file>
@@ -230,11 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +539,11 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -562,8 +574,14 @@
       <c r="J1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">МАА400-1С27-СКНР </v>
@@ -598,8 +616,14 @@
         <f t="shared" ref="J2:J12" si="0">B2&amp;" "&amp;H2</f>
         <v>МАА400-1С БКЮС.436610.007ТУ</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">МДМ15-1В12ТУП </v>
@@ -634,8 +658,14 @@
         <f t="shared" si="0"/>
         <v>МДМ15-1П БКЯЮ.436630.001ТУ</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">МДМ6-1В09ТР </v>
@@ -670,8 +700,14 @@
         <f t="shared" si="0"/>
         <v>МДМ3-1В АНЖЕ.436630.004ТУ</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">МДМ6-2В1515ТВ </v>
@@ -706,8 +742,14 @@
         <f t="shared" si="0"/>
         <v>МДМ3-2В БКЯЮ.436630.004ТУ</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">МДМ40-1Б09ТУР </v>
@@ -742,14 +784,20 @@
         <f t="shared" si="0"/>
         <v>МДМ40-1П АНЖЕ.436630.004ТУ</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">МДМ12-1E09ТУП </v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -778,8 +826,14 @@
         <f t="shared" si="0"/>
         <v>МДМ12-1П БКЯЮ.436630.001ТУ</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">МРМ1-В2,5ДМ </v>
@@ -814,8 +868,14 @@
         <f t="shared" si="0"/>
         <v>МРМ1-В2,5 БКЮС.468240.003ТУ</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">МДМ160-1E24ВУП </v>
@@ -850,8 +910,14 @@
         <f t="shared" si="0"/>
         <v>МДМ160-1П БКЮС.430609.002ТУ</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -875,7 +941,7 @@
         <v>МДМ3-1Е9ТП</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
@@ -883,10 +949,16 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>МДМ3-1В БСАР.430420.014ТУ</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>МДМ3-1В БКЮС.430609.002ТУ</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -910,7 +982,7 @@
         <v>МДМ8-1Е9ТП</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
@@ -918,15 +990,21 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>МДМ3-1В БСАР.430420.014ТУ</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>МДМ3-1В БКЮС.430609.002ТУ</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -945,7 +1023,7 @@
         <v>МДМ12-1Е12ТП</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
@@ -953,11 +1031,18 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>МДМ12-1П БСАР.430420.014ТУ</v>
+        <v>МДМ12-1П БКЮС.430609.002ТУ</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PowerSupplyGOST.xlsx
+++ b/PowerSupplyGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7A59C-60AF-4AA4-ABBA-CADF38766FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC5724-6D02-4015-85F8-A9550909CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>МАА400-1С27-СКНР БКЮС.436610.007ТУ</t>
   </si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>ООО "АЕДОН"</t>
+  </si>
+  <si>
+    <t>ВРМ24-15-5/3</t>
+  </si>
+  <si>
+    <t>ВРМ27-100-5/20</t>
+  </si>
+  <si>
+    <t>ТУ 6390-001-61704169-10</t>
+  </si>
+  <si>
+    <t>ВРМ24-15-5/3 ТУ 6390-001-61704169-10</t>
+  </si>
+  <si>
+    <t>ВРМ27-100-5/20 ТУ 6390-001-61704169-10</t>
+  </si>
+  <si>
+    <t>ООО "ИРБИС-5”</t>
   </si>
 </sst>
 </file>
@@ -525,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +555,11 @@
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
     <col min="12" max="12" width="51" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,7 +609,7 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
@@ -631,7 +651,7 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
@@ -673,7 +693,7 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
@@ -715,7 +735,7 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -757,7 +777,7 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -799,7 +819,7 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
@@ -841,7 +861,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
@@ -883,7 +903,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
@@ -924,7 +944,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -965,7 +985,7 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
@@ -1006,7 +1026,7 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
@@ -1038,6 +1058,76 @@
       </c>
       <c r="L12" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/PowerSupplyGOST.xlsx
+++ b/PowerSupplyGOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC5724-6D02-4015-85F8-A9550909CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6E75C-1B89-471C-8C50-14A8D899967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>МАА400-1С27-СКНР БКЮС.436610.007ТУ</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>ООО "ИРБИС-5”</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +566,7 @@
     <col min="12" max="12" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -600,8 +603,11 @@
       <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">МАА400-1С27-СКНР </v>
@@ -643,7 +649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">МДМ15-1В12ТУП </v>
@@ -685,7 +691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">МДМ6-1В09ТР </v>
@@ -727,7 +733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">МДМ6-2В1515ТВ </v>
@@ -769,7 +775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">МДМ40-1Б09ТУР </v>
@@ -811,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">МДМ12-1E09ТУП </v>
@@ -853,7 +859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">МРМ1-В2,5ДМ </v>
@@ -895,7 +901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">МДМ160-1E24ВУП </v>
@@ -937,7 +943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -978,7 +984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>

--- a/PowerSupplyGOST.xlsx
+++ b/PowerSupplyGOST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6E75C-1B89-471C-8C50-14A8D899967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CDA395-4B32-4DD6-B37C-9598561A8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>МАА400-1С27-СКНР БКЮС.436610.007ТУ</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>Коммент</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
     <col min="12" max="12" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -606,8 +609,11 @@
       <c r="M1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">МАА400-1С27-СКНР </v>
@@ -649,7 +655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">МДМ15-1В12ТУП </v>
@@ -691,7 +697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">МДМ6-1В09ТР </v>
@@ -733,7 +739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">МДМ6-2В1515ТВ </v>
@@ -775,7 +781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">МДМ40-1Б09ТУР </v>
@@ -817,7 +823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">МДМ12-1E09ТУП </v>
@@ -859,7 +865,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">МРМ1-В2,5ДМ </v>
@@ -901,7 +907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">МДМ160-1E24ВУП </v>
@@ -943,7 +949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -984,7 +990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>

--- a/PowerSupplyGOST.xlsx
+++ b/PowerSupplyGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CDA395-4B32-4DD6-B37C-9598561A8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E2687-4498-4824-9414-7F3343F66278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
   <si>
     <t>МАА400-1С27-СКНР БКЮС.436610.007ТУ</t>
   </si>
@@ -193,12 +193,6 @@
     <t>ТУ 6390-001-61704169-10</t>
   </si>
   <si>
-    <t>ВРМ24-15-5/3 ТУ 6390-001-61704169-10</t>
-  </si>
-  <si>
-    <t>ВРМ27-100-5/20 ТУ 6390-001-61704169-10</t>
-  </si>
-  <si>
     <t>ООО "ИРБИС-5”</t>
   </si>
   <si>
@@ -206,13 +200,52 @@
   </si>
   <si>
     <t>Коммент</t>
+  </si>
+  <si>
+    <t>МДМ3-1В09МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БКЯЮ.436630.001ТУ </t>
+  </si>
+  <si>
+    <t>МДМ6-2В1515ТВ</t>
+  </si>
+  <si>
+    <t>МДМ30-1Е12ТУП</t>
+  </si>
+  <si>
+    <t>МДМ240-1ВМУФ</t>
+  </si>
+  <si>
+    <t>БКЯЮ.436630.040ТУ</t>
+  </si>
+  <si>
+    <t>МДМ3-2ВТП</t>
+  </si>
+  <si>
+    <t>МДМ3-1ВТП</t>
+  </si>
+  <si>
+    <t>МДМ8-1В12МУВ</t>
+  </si>
+  <si>
+    <t>МДМ8-1Е12МУП</t>
+  </si>
+  <si>
+    <t>МДМ6-1В09ВУП</t>
+  </si>
+  <si>
+    <t>МДМ8-1В09ТУВ</t>
+  </si>
+  <si>
+    <t>МДМ240Ф</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +259,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -549,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +646,10 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -645,8 +684,8 @@
         <v xml:space="preserve">МАА400-1С27-СКНР </v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J12" si="0">B2&amp;" "&amp;H2</f>
-        <v>МАА400-1С БКЮС.436610.007ТУ</v>
+        <f>A2&amp;" "&amp;H2</f>
+        <v>МАА400-1С27-СКНР  БКЮС.436610.007ТУ</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -676,19 +715,19 @@
         <v>30</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G12" si="1">A3</f>
+        <f t="shared" ref="G3:G12" si="0">A3</f>
         <v xml:space="preserve">МДМ15-1В12ТУП </v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I12" si="2">A3</f>
+        <f t="shared" ref="I3:I12" si="1">A3</f>
         <v xml:space="preserve">МДМ15-1В12ТУП </v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ15-1П БКЯЮ.436630.001ТУ</v>
+        <f t="shared" ref="J3:J23" si="2">A3&amp;" "&amp;H3</f>
+        <v>МДМ15-1В12ТУП  БКЯЮ.436630.001ТУ</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
@@ -718,19 +757,19 @@
         <v>30</v>
       </c>
       <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МДМ6-1В09ТР </v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МДМ6-1В09ТР </v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МДМ6-1В09ТР </v>
-      </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ3-1В АНЖЕ.436630.004ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ6-1В09ТР  АНЖЕ.436630.004ТУ</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -760,19 +799,19 @@
         <v>30</v>
       </c>
       <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МДМ6-2В1515ТВ </v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МДМ6-2В1515ТВ </v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МДМ6-2В1515ТВ </v>
-      </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ3-2В БКЯЮ.436630.004ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ6-2В1515ТВ  БКЯЮ.436630.004ТУ</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -802,19 +841,19 @@
         <v>30</v>
       </c>
       <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МДМ40-1Б09ТУР </v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МДМ40-1Б09ТУР </v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МДМ40-1Б09ТУР </v>
-      </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ40-1П АНЖЕ.436630.004ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ40-1Б09ТУР  АНЖЕ.436630.004ТУ</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -844,19 +883,19 @@
         <v>30</v>
       </c>
       <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МДМ12-1E09ТУП </v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МДМ12-1E09ТУП </v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МДМ12-1E09ТУП </v>
-      </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ12-1П БКЯЮ.436630.001ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ12-1E09ТУП  БКЯЮ.436630.001ТУ</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
@@ -886,19 +925,19 @@
         <v>30</v>
       </c>
       <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МРМ1-В2,5ДМ </v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МРМ1-В2,5ДМ </v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МРМ1-В2,5ДМ </v>
-      </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>МРМ1-В2,5 БКЮС.468240.003ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МРМ1-В2,5ДМ  БКЮС.468240.003ТУ</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
@@ -928,19 +967,19 @@
         <v>30</v>
       </c>
       <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">МДМ160-1E24ВУП </v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">МДМ160-1E24ВУП </v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">МДМ160-1E24ВУП </v>
-      </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ160-1П БКЮС.430609.002ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ160-1E24ВУП  БКЮС.430609.002ТУ</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -969,19 +1008,19 @@
         <v>30</v>
       </c>
       <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>МДМ3-1Е9ТП</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v>МДМ3-1Е9ТП</v>
       </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>МДМ3-1Е9ТП</v>
-      </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ3-1В БКЮС.430609.002ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ3-1Е9ТП БКЮС.430609.002ТУ</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -1010,19 +1049,19 @@
         <v>30</v>
       </c>
       <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>МДМ8-1Е9ТП</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="1"/>
         <v>МДМ8-1Е9ТП</v>
       </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>МДМ8-1Е9ТП</v>
-      </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ3-1В БКЮС.430609.002ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ8-1Е9ТП БКЮС.430609.002ТУ</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
@@ -1051,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>МДМ12-1Е12ТП</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>МДМ12-1Е12ТП</v>
       </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>МДМ12-1Е12ТП</v>
-      </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>МДМ12-1П БКЮС.430609.002ТУ</v>
+        <f t="shared" si="2"/>
+        <v>МДМ12-1Е12ТП БКЮС.430609.002ТУ</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -1097,14 +1136,15 @@
       <c r="I13" t="s">
         <v>49</v>
       </c>
-      <c r="J13" t="s">
-        <v>52</v>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>ВРМ24-15-5/3 ТУ 6390-001-61704169-10</v>
       </c>
       <c r="K13" t="s">
         <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1132,17 +1172,334 @@
       <c r="I14" t="s">
         <v>50</v>
       </c>
-      <c r="J14" t="s">
-        <v>53</v>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>ВРМ27-100-5/20 ТУ 6390-001-61704169-10</v>
       </c>
       <c r="K14" t="s">
         <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">МДМ3-1В09МП БКЯЮ.436630.001ТУ </v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">МДМ6-2В1515ТВ </v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ30-1Е12ТУП БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ240-1ВМУФ БКЯЮ.436630.040ТУ</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ8-1В12МУВ БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ8-1Е12МУП БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ6-1В09ВУП БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ8-1В09ТУВ БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>МДМ8-1В09ТУВ БКЯЮ.436630.001ТУ</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
